--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,19 +659,70 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43934</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27217</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>539</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>2420.11</v>
+      </c>
       <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>6834.07</v>
+        <f>SUM(F8,F9)</f>
+        <v>3042.19</v>
       </c>
       <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>6834.07</v>
+        <v>3042.19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14863</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>622.08000000000004</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>9876.26</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>9876.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,19 +710,70 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43963</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27569</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>352</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>1580.48</v>
+      </c>
       <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>2051.9</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2051.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15057</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="5"/>
+        <v>471.42</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
         <f>SUM(G2:G9)</f>
         <v>9876.26</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H12" s="10">
         <f>SUM(H2:H9)</f>
         <v>9876.26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,19 +761,70 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27902</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>333</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>1495.17</v>
+      </c>
       <c r="G12" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>9876.26</v>
+        <f>SUM(F12,F13)</f>
+        <v>2007.9</v>
       </c>
       <c r="H12" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>9876.26</v>
+        <v>2007.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15268</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="7"/>
+        <v>512.73</v>
+      </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="10">
+        <f>SUM(G2:G13)</f>
+        <v>13936.06</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H13)</f>
+        <v>13936.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -812,19 +812,70 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44032</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>28053</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>151</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>711.21</v>
+      </c>
       <c r="G14" s="10">
-        <f>SUM(G2:G13)</f>
-        <v>13936.06</v>
+        <f>SUM(F14,F15)</f>
+        <v>1009.56</v>
       </c>
       <c r="H14" s="10">
-        <f>SUM(H2:H13)</f>
-        <v>13936.06</v>
+        <v>1009.56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15385</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="9"/>
+        <v>298.34999999999997</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>14945.619999999999</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>14945.619999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L32" sqref="L32:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,19 +863,70 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44069</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>28323</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
+        <v>270</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>1271.7</v>
+      </c>
       <c r="G16" s="10">
-        <f>SUM(G2:G15)</f>
-        <v>14945.619999999999</v>
+        <f>SUM(F16,F17)</f>
+        <v>1457.85</v>
       </c>
       <c r="H16" s="10">
-        <f>SUM(H2:H15)</f>
-        <v>14945.619999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+        <v>1457.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15458</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="11"/>
+        <v>186.14999999999998</v>
+      </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="10">
+        <f>SUM(G2:G17)</f>
+        <v>16403.469999999998</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H17)</f>
+        <v>16403.469999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32:L33"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -914,19 +914,70 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>44106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>28523</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>942</v>
+      </c>
       <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1197</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15558</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="10">
         <f>SUM(G2:G17)</f>
         <v>16403.469999999998</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f>SUM(H2:H17)</f>
         <v>16403.469999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,19 +965,70 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>28701</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
+        <v>178</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>838.38</v>
+      </c>
       <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>1047.48</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1047.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15640</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="15"/>
+        <v>209.1</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="10">
         <f>SUM(G2:G17)</f>
         <v>16403.469999999998</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <f>SUM(H2:H17)</f>
         <v>16403.469999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>новый счетчик</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +174,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +499,29 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44180</v>
+        <v>44279</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D2" s="10">
-        <f t="shared" ref="D2:D7" si="0">SUM(C2,-C4)</f>
-        <v>397</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="1">D2*E2</f>
-        <v>1869.87</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>2150.37</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>1702.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,49 +530,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D3" s="10">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="1"/>
-        <v>280.5</v>
+        <f t="shared" ref="F2:F3" si="0">D3*E3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44144</v>
+      <c r="A4" s="17">
+        <v>44291</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>28701</v>
+        <v>29671</v>
       </c>
       <c r="D4" s="10">
         <f>SUM(C4,-C6)</f>
-        <v>178</v>
+        <v>345</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>838.38</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1624.95</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1047.48</v>
+        <v>2106.9</v>
       </c>
       <c r="H4" s="8">
-        <v>1047.48</v>
+        <v>2106.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -573,141 +578,347 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>15640</v>
+        <v>16112</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f>SUM(C5,-C7)</f>
+        <v>189</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>209.1</v>
+        <v>481.95</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44106</v>
+      <c r="A6" s="17">
+        <v>44228</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>28523</v>
+        <v>29326</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>SUM(C6,-C9)</f>
+        <v>228</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>942</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1197</v>
+        <v>1515.0299999999997</v>
       </c>
       <c r="H6" s="8">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>15558</v>
+        <v>15923</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(C7,-C10)</f>
+        <v>173</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="2"/>
+        <v>441.15</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44069</v>
+        <v>44228</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>447.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44180</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>29098</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" ref="D9:D14" si="3">SUM(C9,-C11)</f>
+        <v>397</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F14" si="4">D9*E9</f>
+        <v>1869.87</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(F9,F10)</f>
+        <v>2150.37</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1702.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15750</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="4"/>
+        <v>280.5</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44144</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>28701</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(C11,-C13)</f>
+        <v>178</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>838.38</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM(F11,F12)</f>
+        <v>1047.48</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1047.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>15640</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>209.1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
+        <v>28523</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>942</v>
+      </c>
+      <c r="G13" s="8">
+        <f>SUM(F13,F14)</f>
+        <v>1197</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10">
         <v>28323</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C16" s="10">
         <v>15458</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,29 +499,30 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44279</v>
+        <v>44323</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
+        <v>446</v>
+      </c>
+      <c r="D2" s="10">
+        <v>446</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>2100.66</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
+        <v>2758.56</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,46 +531,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="D3" s="10">
+        <v>258</v>
+      </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F2:F3" si="0">D3*E3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>657.9</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44291</v>
+        <v>44279</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>29671</v>
-      </c>
-      <c r="D4" s="10">
-        <f>SUM(C4,-C6)</f>
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1624.95</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2106.9</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>2106.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,49 +579,46 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>16112</v>
-      </c>
-      <c r="D5" s="10">
-        <f>SUM(C5,-C7)</f>
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>481.95</v>
+        <f t="shared" ref="F5" si="1">D5*E5</f>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44228</v>
+        <v>44291</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>29326</v>
+        <v>29671</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C6,-C9)</f>
-        <v>228</v>
+        <f>SUM(C6,-C8)</f>
+        <v>345</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>1073.8799999999999</v>
+        <v>1624.95</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1515.0299999999997</v>
+        <v>2106.9</v>
       </c>
       <c r="H6" s="8">
-        <v>1515.03</v>
+        <v>2106.9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,126 +627,126 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>15923</v>
+        <v>16112</v>
       </c>
       <c r="D7" s="10">
-        <f>SUM(C7,-C10)</f>
-        <v>173</v>
+        <f>SUM(C7,-C9)</f>
+        <v>189</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>441.15</v>
+        <v>481.95</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="17">
         <v>44228</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
+        <v>29326</v>
       </c>
       <c r="D8" s="10">
-        <v>0</v>
+        <f>SUM(C8,-C11)</f>
+        <v>228</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <f>SUM(F8,F9)</f>
+        <v>1515.0299999999997</v>
       </c>
       <c r="H8" s="8">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>15923</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(C9,-C12)</f>
+        <v>173</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>441.15</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>447.45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>44180</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" ref="D9:D14" si="3">SUM(C9,-C11)</f>
-        <v>397</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9:F14" si="4">D9*E9</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G9" s="8">
-        <f>SUM(F9,F10)</f>
-        <v>2150.37</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1702.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="4"/>
-        <v>280.5</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44144</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10">
-        <v>28701</v>
+        <v>29098</v>
       </c>
       <c r="D11" s="10">
-        <f>SUM(C11,-C13)</f>
-        <v>178</v>
+        <f t="shared" ref="D11:D16" si="4">SUM(C11,-C13)</f>
+        <v>397</v>
       </c>
       <c r="E11" s="3">
         <v>4.71</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>838.38</v>
+        <f t="shared" ref="F11:F16" si="5">D11*E11</f>
+        <v>1869.87</v>
       </c>
       <c r="G11" s="8">
         <f>SUM(F11,F12)</f>
-        <v>1047.48</v>
+        <v>2150.37</v>
       </c>
       <c r="H11" s="8">
-        <v>1047.48</v>
+        <v>1702.92</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,49 +755,49 @@
         <v>9</v>
       </c>
       <c r="C12" s="10">
-        <v>15640</v>
+        <v>15750</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="E12" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>209.1</v>
+        <f t="shared" si="5"/>
+        <v>280.5</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>44106</v>
+        <v>44144</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10">
-        <v>28523</v>
+        <v>28701</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>SUM(C13,-C15)</f>
+        <v>178</v>
       </c>
       <c r="E13" s="3">
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="4"/>
-        <v>942</v>
+        <f t="shared" si="5"/>
+        <v>838.38</v>
       </c>
       <c r="G13" s="8">
         <f>SUM(F13,F14)</f>
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
       <c r="H13" s="8">
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,37 +806,50 @@
         <v>9</v>
       </c>
       <c r="C14" s="10">
-        <v>15558</v>
+        <v>15640</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
       <c r="E14" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="4"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="5"/>
+        <v>209.1</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>44069</v>
+        <v>44106</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="10">
-        <v>28323</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+        <v>28523</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>942</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(F15,F16)</f>
+        <v>1197</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -846,64 +857,84 @@
         <v>9</v>
       </c>
       <c r="C16" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>28323</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10">
         <v>15458</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -920,6 +951,26 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -499,30 +499,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44323</v>
+        <v>44383</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>446</v>
+        <v>675</v>
       </c>
       <c r="D2" s="10">
-        <v>446</v>
+        <f>SUM(C2,-C4)</f>
+        <v>229</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2100.66</v>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>2758.56</v>
+        <v>1494.2399999999998</v>
       </c>
       <c r="H2" s="8">
-        <v>2758.56</v>
+        <v>1494.28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,46 +532,48 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="D3" s="10">
-        <v>258</v>
+        <f>SUM(C3,-C5)</f>
+        <v>163</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>657.9</v>
+        <v>415.65</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44279</v>
+        <v>44323</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>446</v>
+      </c>
+      <c r="D4" s="10">
+        <v>446</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2100.66</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>0</v>
+        <v>2758.56</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,46 +582,46 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="D5" s="10">
+        <v>258</v>
+      </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5" si="1">D5*E5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>657.9</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44291</v>
+        <v>44279</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>29671</v>
-      </c>
-      <c r="D6" s="10">
-        <f>SUM(C6,-C8)</f>
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>1624.95</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>2106.9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>2106.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,49 +630,46 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>16112</v>
-      </c>
-      <c r="D7" s="10">
-        <f>SUM(C7,-C9)</f>
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>481.95</v>
+        <f t="shared" ref="F7" si="2">D7*E7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44228</v>
+        <v>44291</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>29326</v>
+        <v>29671</v>
       </c>
       <c r="D8" s="10">
-        <f>SUM(C8,-C11)</f>
-        <v>228</v>
+        <f>SUM(C8,-C10)</f>
+        <v>345</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>1073.8799999999999</v>
+        <v>1624.95</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1515.0299999999997</v>
+        <v>2106.9</v>
       </c>
       <c r="H8" s="8">
-        <v>1515.03</v>
+        <v>2106.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,126 +678,126 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>15923</v>
+        <v>16112</v>
       </c>
       <c r="D9" s="10">
-        <f>SUM(C9,-C12)</f>
-        <v>173</v>
+        <f>SUM(C9,-C11)</f>
+        <v>189</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="3"/>
-        <v>441.15</v>
+        <v>481.95</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="17">
         <v>44228</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>0</v>
+        <v>29326</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <f>SUM(C10,-C13)</f>
+        <v>228</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <f>SUM(F10,F11)</f>
+        <v>1515.0299999999997</v>
       </c>
       <c r="H10" s="8">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>15923</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(C11,-C14)</f>
+        <v>173</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>441.15</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>447.45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>44180</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:D16" si="4">SUM(C11,-C13)</f>
-        <v>397</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" ref="F11:F16" si="5">D11*E11</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G11" s="8">
-        <f>SUM(F11,F12)</f>
-        <v>2150.37</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1702.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="5"/>
-        <v>280.5</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44144</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10">
-        <v>28701</v>
+        <v>29098</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(C13,-C15)</f>
-        <v>178</v>
+        <f t="shared" ref="D13:D18" si="5">SUM(C13,-C15)</f>
+        <v>397</v>
       </c>
       <c r="E13" s="3">
         <v>4.71</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="5"/>
-        <v>838.38</v>
+        <f t="shared" ref="F13:F18" si="6">D13*E13</f>
+        <v>1869.87</v>
       </c>
       <c r="G13" s="8">
         <f>SUM(F13,F14)</f>
-        <v>1047.48</v>
+        <v>2150.37</v>
       </c>
       <c r="H13" s="8">
-        <v>1047.48</v>
+        <v>1702.92</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -806,49 +806,49 @@
         <v>9</v>
       </c>
       <c r="C14" s="10">
-        <v>15640</v>
+        <v>15750</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="4"/>
-        <v>82</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="E14" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="5"/>
-        <v>209.1</v>
+        <f t="shared" si="6"/>
+        <v>280.5</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>44106</v>
+        <v>44144</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="10">
-        <v>28523</v>
+        <v>28701</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>SUM(C15,-C17)</f>
+        <v>178</v>
       </c>
       <c r="E15" s="3">
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="5"/>
-        <v>942</v>
+        <f t="shared" si="6"/>
+        <v>838.38</v>
       </c>
       <c r="G15" s="8">
         <f>SUM(F15,F16)</f>
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
       <c r="H15" s="8">
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -857,37 +857,50 @@
         <v>9</v>
       </c>
       <c r="C16" s="10">
-        <v>15558</v>
+        <v>15640</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>82</v>
       </c>
       <c r="E16" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="5"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="6"/>
+        <v>209.1</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>44069</v>
+        <v>44106</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10">
-        <v>28323</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+        <v>28523</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>942</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(F17,F18)</f>
+        <v>1197</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -895,66 +908,86 @@
         <v>9</v>
       </c>
       <c r="C18" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10">
+        <v>28323</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
         <v>15458</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -971,6 +1004,26 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\13.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,31 +499,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44383</v>
+        <v>44433</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>675</v>
+        <v>856</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(C2,-C4)</f>
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1078.5899999999999</v>
+        <v>897.76</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1494.2399999999998</v>
+        <v>1339.96</v>
       </c>
       <c r="H2" s="8">
-        <v>1494.28</v>
+        <v>1339.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,48 +532,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="D3" s="10">
         <f>SUM(C3,-C5)</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>415.65</v>
+        <v>442.20000000000005</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44323</v>
+        <v>44383</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>446</v>
+        <v>675</v>
       </c>
       <c r="D4" s="10">
-        <v>446</v>
+        <f>SUM(C4,-C6)</f>
+        <v>229</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2100.66</v>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2758.56</v>
+        <v>1494.2399999999998</v>
       </c>
       <c r="H4" s="8">
-        <v>2758.56</v>
+        <v>1494.28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,46 +583,48 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="D5" s="10">
-        <v>258</v>
+        <f>SUM(C5,-C7)</f>
+        <v>163</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>657.9</v>
+        <v>415.65</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44279</v>
+        <v>44323</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>446</v>
+      </c>
+      <c r="D6" s="10">
+        <v>446</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>2100.66</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>0</v>
+        <v>2758.56</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -630,46 +633,46 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="D7" s="10">
+        <v>258</v>
+      </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7" si="2">D7*E7</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>657.9</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44291</v>
+        <v>44279</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>29671</v>
-      </c>
-      <c r="D8" s="10">
-        <f>SUM(C8,-C10)</f>
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>1624.95</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>2106.9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>2106.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,49 +681,46 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>16112</v>
-      </c>
-      <c r="D9" s="10">
-        <f>SUM(C9,-C11)</f>
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>481.95</v>
+        <f t="shared" ref="F9" si="3">D9*E9</f>
+        <v>0</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>44228</v>
+        <v>44291</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>29326</v>
+        <v>29671</v>
       </c>
       <c r="D10" s="10">
-        <f>SUM(C10,-C13)</f>
-        <v>228</v>
+        <f>SUM(C10,-C12)</f>
+        <v>345</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>1073.8799999999999</v>
+        <v>1624.95</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1515.0299999999997</v>
+        <v>2106.9</v>
       </c>
       <c r="H10" s="8">
-        <v>1515.03</v>
+        <v>2106.9</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,126 +729,126 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>15923</v>
+        <v>16112</v>
       </c>
       <c r="D11" s="10">
-        <f>SUM(C11,-C14)</f>
-        <v>173</v>
+        <f>SUM(C11,-C13)</f>
+        <v>189</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="4"/>
-        <v>441.15</v>
+        <v>481.95</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="17">
         <v>44228</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>29326</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <f>SUM(C12,-C15)</f>
+        <v>228</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>1073.8799999999999</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <f>SUM(F12,F13)</f>
+        <v>1515.0299999999997</v>
       </c>
       <c r="H12" s="8">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15923</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(C13,-C16)</f>
+        <v>173</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="5"/>
+        <v>441.15</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <v>447.45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>44180</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" ref="D13:D18" si="5">SUM(C13,-C15)</f>
-        <v>397</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" ref="F13:F18" si="6">D13*E13</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G13" s="8">
-        <f>SUM(F13,F14)</f>
-        <v>2150.37</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1702.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>280.5</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44144</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="10">
-        <v>28701</v>
+        <v>29098</v>
       </c>
       <c r="D15" s="10">
-        <f>SUM(C15,-C17)</f>
-        <v>178</v>
+        <f t="shared" ref="D15:D20" si="6">SUM(C15,-C17)</f>
+        <v>397</v>
       </c>
       <c r="E15" s="3">
         <v>4.71</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
-        <v>838.38</v>
+        <f t="shared" ref="F15:F20" si="7">D15*E15</f>
+        <v>1869.87</v>
       </c>
       <c r="G15" s="8">
         <f>SUM(F15,F16)</f>
-        <v>1047.48</v>
+        <v>2150.37</v>
       </c>
       <c r="H15" s="8">
-        <v>1047.48</v>
+        <v>1702.92</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -857,49 +857,49 @@
         <v>9</v>
       </c>
       <c r="C16" s="10">
-        <v>15640</v>
+        <v>15750</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
       <c r="E16" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="6"/>
-        <v>209.1</v>
+        <f t="shared" si="7"/>
+        <v>280.5</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>44106</v>
+        <v>44144</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10">
-        <v>28523</v>
+        <v>28701</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f>SUM(C17,-C19)</f>
+        <v>178</v>
       </c>
       <c r="E17" s="3">
         <v>4.71</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="6"/>
-        <v>942</v>
+        <f t="shared" si="7"/>
+        <v>838.38</v>
       </c>
       <c r="G17" s="8">
         <f>SUM(F17,F18)</f>
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
       <c r="H17" s="8">
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -908,37 +908,50 @@
         <v>9</v>
       </c>
       <c r="C18" s="10">
-        <v>15558</v>
+        <v>15640</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>82</v>
       </c>
       <c r="E18" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="6"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="7"/>
+        <v>209.1</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44069</v>
+        <v>44106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="10">
-        <v>28323</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+        <v>28523</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="7"/>
+        <v>942</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(F19,F20)</f>
+        <v>1197</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -946,68 +959,86 @@
         <v>9</v>
       </c>
       <c r="C20" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10">
+        <v>28323</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="10">
         <v>15458</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1024,6 +1055,26 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\13.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,31 +499,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44433</v>
+        <v>44473</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>856</v>
+        <v>970</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(C2,-C4)</f>
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>897.76</v>
+        <v>565.43999999999994</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1339.96</v>
+        <v>798.59999999999991</v>
       </c>
       <c r="H2" s="8">
-        <v>1339.96</v>
+        <v>798.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,49 +532,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="D3" s="10">
         <f>SUM(C3,-C5)</f>
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>442.20000000000005</v>
+        <v>233.16000000000003</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44383</v>
+        <v>44433</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>675</v>
+        <v>856</v>
       </c>
       <c r="D4" s="10">
         <f>SUM(C4,-C6)</f>
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1078.5899999999999</v>
+        <v>897.76</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1494.2399999999998</v>
+        <v>1339.96</v>
       </c>
       <c r="H4" s="8">
-        <v>1494.28</v>
+        <v>1339.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,48 +583,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="D5" s="10">
         <f>SUM(C5,-C7)</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>415.65</v>
+        <v>442.20000000000005</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44323</v>
+        <v>44383</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>446</v>
+        <v>675</v>
       </c>
       <c r="D6" s="10">
-        <v>446</v>
+        <f>SUM(C6,-C8)</f>
+        <v>229</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>2100.66</v>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>2758.56</v>
+        <v>1494.2399999999998</v>
       </c>
       <c r="H6" s="8">
-        <v>2758.56</v>
+        <v>1494.28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,46 +634,48 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="D7" s="10">
-        <v>258</v>
+        <f>SUM(C7,-C9)</f>
+        <v>163</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>657.9</v>
+        <v>415.65</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44279</v>
+        <v>44323</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>446</v>
+      </c>
+      <c r="D8" s="10">
+        <v>446</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>2100.66</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
+        <v>2758.56</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,46 +684,46 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="D9" s="10">
+        <v>258</v>
+      </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ref="F9" si="3">D9*E9</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>657.9</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>44291</v>
+        <v>44279</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>29671</v>
-      </c>
-      <c r="D10" s="10">
-        <f>SUM(C10,-C12)</f>
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>1624.95</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>2106.9</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>2106.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,49 +732,46 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>16112</v>
-      </c>
-      <c r="D11" s="10">
-        <f>SUM(C11,-C13)</f>
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>481.95</v>
+        <f t="shared" ref="F11" si="4">D11*E11</f>
+        <v>0</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>44228</v>
+        <v>44291</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>29326</v>
+        <v>29671</v>
       </c>
       <c r="D12" s="10">
-        <f>SUM(C12,-C15)</f>
-        <v>228</v>
+        <f>SUM(C12,-C14)</f>
+        <v>345</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>1073.8799999999999</v>
+        <v>1624.95</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1515.0299999999997</v>
+        <v>2106.9</v>
       </c>
       <c r="H12" s="8">
-        <v>1515.03</v>
+        <v>2106.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,126 +780,126 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>15923</v>
+        <v>16112</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(C13,-C16)</f>
-        <v>173</v>
+        <f>SUM(C13,-C15)</f>
+        <v>189</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="5"/>
-        <v>441.15</v>
+        <v>481.95</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="17">
         <v>44228</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10">
+        <v>29326</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(C14,-C17)</f>
+        <v>228</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>1073.8799999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>1515.0299999999997</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>15923</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(C15,-C18)</f>
+        <v>173</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>441.15</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H16" s="8">
         <v>447.45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>44180</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" ref="D15:D20" si="6">SUM(C15,-C17)</f>
-        <v>397</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15:F20" si="7">D15*E15</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G15" s="8">
-        <f>SUM(F15,F16)</f>
-        <v>2150.37</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1702.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="7"/>
-        <v>280.5</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44144</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="10">
-        <v>28701</v>
+        <v>29098</v>
       </c>
       <c r="D17" s="10">
-        <f>SUM(C17,-C19)</f>
-        <v>178</v>
+        <f t="shared" ref="D17:D22" si="7">SUM(C17,-C19)</f>
+        <v>397</v>
       </c>
       <c r="E17" s="3">
         <v>4.71</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="7"/>
-        <v>838.38</v>
+        <f t="shared" ref="F17:F22" si="8">D17*E17</f>
+        <v>1869.87</v>
       </c>
       <c r="G17" s="8">
         <f>SUM(F17,F18)</f>
-        <v>1047.48</v>
+        <v>2150.37</v>
       </c>
       <c r="H17" s="8">
-        <v>1047.48</v>
+        <v>1702.92</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -908,49 +908,49 @@
         <v>9</v>
       </c>
       <c r="C18" s="10">
-        <v>15640</v>
+        <v>15750</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
       <c r="E18" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="7"/>
-        <v>209.1</v>
+        <f t="shared" si="8"/>
+        <v>280.5</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44106</v>
+        <v>44144</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="10">
-        <v>28523</v>
+        <v>28701</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f>SUM(C19,-C21)</f>
+        <v>178</v>
       </c>
       <c r="E19" s="3">
         <v>4.71</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="7"/>
-        <v>942</v>
+        <f t="shared" si="8"/>
+        <v>838.38</v>
       </c>
       <c r="G19" s="8">
         <f>SUM(F19,F20)</f>
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
       <c r="H19" s="8">
-        <v>1197</v>
+        <v>1047.48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,37 +959,50 @@
         <v>9</v>
       </c>
       <c r="C20" s="10">
-        <v>15558</v>
+        <v>15640</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
       <c r="E20" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="8"/>
+        <v>209.1</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>44069</v>
+        <v>44106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="10">
-        <v>28323</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+        <v>28523</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>942</v>
+      </c>
+      <c r="G21" s="8">
+        <f>SUM(F21,F22)</f>
+        <v>1197</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -997,68 +1010,86 @@
         <v>9</v>
       </c>
       <c r="C22" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10">
+        <v>28323</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10">
         <v>15458</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1075,6 +1106,26 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/270ee.xlsx
+++ b/sputnik/personal/ee/270ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -499,31 +499,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44473</v>
+        <v>44550</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>970</v>
+        <v>1833</v>
       </c>
       <c r="D2" s="10">
-        <f>SUM(C2,-C4)</f>
-        <v>114</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>465</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>565.43999999999994</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>2306.4</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>798.59999999999991</v>
+        <v>2922.8</v>
       </c>
       <c r="H2" s="8">
-        <v>798.6</v>
+        <v>2922.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,49 +532,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>673</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="10">
-        <f>SUM(C3,-C5)</f>
-        <v>87</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>233.16000000000003</v>
+        <f t="shared" si="1"/>
+        <v>616.40000000000009</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44433</v>
+        <v>44533</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>856</v>
+        <v>1368</v>
       </c>
       <c r="D4" s="10">
-        <f>SUM(C4,-C6)</f>
-        <v>181</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>268</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>897.76</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1329.28</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1339.96</v>
+        <v>1656.24</v>
       </c>
       <c r="H4" s="8">
-        <v>1339.96</v>
+        <v>1656.24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,49 +583,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>586</v>
+        <v>885</v>
       </c>
       <c r="D5" s="10">
-        <f>SUM(C5,-C7)</f>
-        <v>165</v>
+        <f t="shared" si="2"/>
+        <v>122</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>442.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>326.96000000000004</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44383</v>
+        <v>44515</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>675</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C6,-C8)</f>
-        <v>229</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>130</v>
       </c>
       <c r="E6" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>1078.5899999999999</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>644.79999999999995</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1494.2399999999998</v>
+        <v>886</v>
       </c>
       <c r="H6" s="8">
-        <v>1494.28</v>
+        <v>886.06</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,48 +634,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>421</v>
+        <v>763</v>
       </c>
       <c r="D7" s="10">
-        <f>SUM(C7,-C9)</f>
-        <v>163</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="E7" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>415.65</v>
+        <f t="shared" si="5"/>
+        <v>241.20000000000002</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44323</v>
+        <v>44473</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>446</v>
+        <v>970</v>
       </c>
       <c r="D8" s="10">
-        <v>446</v>
+        <f t="shared" ref="D8:D13" si="6">SUM(C8,-C10)</f>
+        <v>114</v>
       </c>
       <c r="E8" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>2100.66</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>565.43999999999994</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>2758.56</v>
+        <v>798.59999999999991</v>
       </c>
       <c r="H8" s="8">
-        <v>2758.56</v>
+        <v>798.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,46 +685,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>258</v>
+        <v>673</v>
       </c>
       <c r="D9" s="10">
-        <v>258</v>
+        <f t="shared" si="6"/>
+        <v>87</v>
       </c>
       <c r="E9" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>657.9</v>
+        <f t="shared" si="7"/>
+        <v>233.16000000000003</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>856</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="6"/>
+        <v>181</v>
       </c>
       <c r="E10" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>897.76</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>0</v>
+        <v>1339.96</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1339.96</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -732,46 +736,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
       <c r="E11" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ref="F11" si="4">D11*E11</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>442.20000000000005</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>44291</v>
+        <v>44383</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>29671</v>
+        <v>675</v>
       </c>
       <c r="D12" s="10">
-        <f>SUM(C12,-C14)</f>
-        <v>345</v>
+        <f t="shared" si="6"/>
+        <v>229</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>1624.95</v>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1078.5899999999999</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>2106.9</v>
+        <v>1494.2399999999998</v>
       </c>
       <c r="H12" s="8">
-        <v>2106.9</v>
+        <v>1494.28</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,49 +787,48 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>16112</v>
+        <v>421</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(C13,-C15)</f>
-        <v>189</v>
+        <f t="shared" si="6"/>
+        <v>163</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="5"/>
-        <v>481.95</v>
+        <f t="shared" si="9"/>
+        <v>415.65</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>44228</v>
+        <v>44323</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10">
-        <v>29326</v>
+        <v>446</v>
       </c>
       <c r="D14" s="10">
-        <f>SUM(C14,-C17)</f>
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
-        <v>1073.8799999999999</v>
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>2100.66</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1515.0299999999997</v>
+        <v>2758.56</v>
       </c>
       <c r="H14" s="8">
-        <v>1515.03</v>
+        <v>2758.56</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -831,25 +837,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="10">
-        <v>15923</v>
+        <v>258</v>
       </c>
       <c r="D15" s="10">
-        <f>SUM(C15,-C18)</f>
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
-        <v>441.15</v>
+        <f t="shared" si="10"/>
+        <v>657.9</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44228</v>
+      <c r="A16" s="17">
+        <v>44279</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -857,190 +862,198 @@
       <c r="C16" s="10">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
       </c>
       <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>447.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>44180</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10">
-        <v>29098</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" ref="D17:D22" si="7">SUM(C17,-C19)</f>
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17" si="11">D17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>44291</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>29671</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(C18,-C20)</f>
+        <v>345</v>
+      </c>
+      <c r="E18" s="3">
         <v>4.71</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" ref="F17:F22" si="8">D17*E17</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G17" s="8">
-        <f>SUM(F17,F18)</f>
-        <v>2150.37</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1702.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10">
-        <v>15750</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="F18" s="8">
-        <f t="shared" si="8"/>
-        <v>280.5</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>1624.95</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>2106.9</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2106.9</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44144</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10">
-        <v>28701</v>
+        <v>16112</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(C19,-C21)</f>
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="12"/>
+        <v>481.95</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>44228</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29326</v>
+      </c>
+      <c r="D20" s="10">
+        <f>SUM(C20,-C23)</f>
+        <v>228</v>
+      </c>
+      <c r="E20" s="3">
         <v>4.71</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="8"/>
-        <v>838.38</v>
-      </c>
-      <c r="G19" s="8">
-        <f>SUM(F19,F20)</f>
-        <v>1047.48</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1047.48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10">
-        <v>15640</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>1073.8799999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>1515.0299999999997</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1515.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15923</v>
+      </c>
+      <c r="D21" s="10">
+        <f>SUM(C21,-C24)</f>
+        <v>173</v>
+      </c>
+      <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="8"/>
-        <v>209.1</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>44106</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10">
-        <v>28523</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="F21" s="8">
+        <f t="shared" si="13"/>
+        <v>441.15</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>447.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>44180</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10">
+        <v>29098</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" ref="D23:D28" si="14">SUM(C23,-C25)</f>
+        <v>397</v>
+      </c>
+      <c r="E23" s="3">
         <v>4.71</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="8"/>
-        <v>942</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUM(F21,F22)</f>
-        <v>1197</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="10">
-        <v>15558</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44069</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10">
-        <v>28323</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:F28" si="15">D23*E23</f>
+        <v>1869.87</v>
+      </c>
+      <c r="G23" s="8">
+        <f>SUM(F23,F24)</f>
+        <v>2150.37</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1702.92</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1048,83 +1061,229 @@
         <v>9</v>
       </c>
       <c r="C24" s="10">
+        <v>15750</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="15"/>
+        <v>280.5</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44144</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10">
+        <v>28701</v>
+      </c>
+      <c r="D25" s="10">
+        <f>SUM(C25,-C27)</f>
+        <v>178</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="15"/>
+        <v>838.38</v>
+      </c>
+      <c r="G25" s="8">
+        <f>SUM(F25,F26)</f>
+        <v>1047.48</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1047.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10">
+        <v>15640</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="15"/>
+        <v>209.1</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10">
+        <v>28523</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="15"/>
+        <v>942</v>
+      </c>
+      <c r="G27" s="8">
+        <f>SUM(F27,F28)</f>
+        <v>1197</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="15"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10">
+        <v>28323</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10">
         <v>15458</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
+        <f>SUM(G8:G30)</f>
+        <v>14408.14</v>
+      </c>
+      <c r="H31" s="13">
+        <f>SUM(H8:H30)</f>
+        <v>14408.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
